--- a/mapping/demomapping.xlsx
+++ b/mapping/demomapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\piggypandas\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC819D28-AC43-43F5-BF55-AC3B9BE3C39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912D37C-3684-4F4A-ABA6-DDE0C8A3A906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B6EC5EA8-4A48-4B71-B200-47104E069ADA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,33 @@
   </si>
   <si>
     <t>Horse</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Lamb</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Murray</t>
   </si>
 </sst>
 </file>
@@ -417,41 +444,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0DCE73-FB63-4B8B-90D0-302E87FF50D1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.36328125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
